--- a/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
+++ b/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>1뎁스</t>
   </si>
@@ -213,6 +213,26 @@
   </si>
   <si>
     <t>View Member(팝업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member_popup_View Member.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member_popup_Add New Member.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Neo Pro &amp; HP Listing.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event_popup_View Member Event.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H791"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,7 +731,7 @@
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="106.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="56.5703125" customWidth="1"/>
   </cols>
@@ -874,7 +894,9 @@
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>24</v>
@@ -890,7 +912,9 @@
       <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="5"/>
     </row>
@@ -904,7 +928,9 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="5"/>
     </row>
@@ -1016,7 +1042,9 @@
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
@@ -1030,7 +1058,9 @@
       <c r="E19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>

--- a/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
+++ b/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>1뎁스</t>
   </si>
@@ -228,11 +228,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event_popup_View Member Event.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event.html</t>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Event_popup_Backup Organization.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Transfer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Chart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Aplication.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +737,7 @@
   <dimension ref="A1:H791"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1059,7 +1075,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1090,7 +1106,9 @@
       <c r="E21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
@@ -1106,7 +1124,9 @@
         <v>8</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
@@ -1122,7 +1142,9 @@
         <v>8</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
@@ -1138,7 +1160,9 @@
         <v>8</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>

--- a/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
+++ b/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>1뎁스</t>
   </si>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>/etrust\src/main/webapp/resources/html_Organization/Organization Member Aplication.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization CODCOP.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etrust\src/main/webapp/resources/html_Organization/Organization CODCOP_popup_New COD Process.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1184,9 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
@@ -1188,7 +1198,9 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>

--- a/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
+++ b/src/main/webapp/resources/html_common/eTRUSTsYSTEM AS-IS 사이트맵.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
     <sheet name="Logistics" sheetId="2" r:id="rId2"/>
     <sheet name="Sales" sheetId="3" r:id="rId3"/>
-    <sheet name="system" sheetId="6" r:id="rId4"/>
-    <sheet name="MISC" sheetId="8" r:id="rId5"/>
-    <sheet name="Services" sheetId="9" r:id="rId6"/>
-    <sheet name="Call Centre" sheetId="10" r:id="rId7"/>
+    <sheet name="payment" sheetId="12" r:id="rId4"/>
+    <sheet name="Services" sheetId="9" r:id="rId5"/>
+    <sheet name="Call Centre" sheetId="10" r:id="rId6"/>
+    <sheet name="commission" sheetId="14" r:id="rId7"/>
+    <sheet name="system" sheetId="6" r:id="rId8"/>
+    <sheet name="MISC" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
   <si>
     <t>1뎁스</t>
   </si>
@@ -1851,6 +1853,75 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Management </t>
+  </si>
+  <si>
+    <t>Training Course New Entry</t>
+  </si>
+  <si>
+    <t>TRANING COURSE-VIEW</t>
+  </si>
+  <si>
+    <t>View Member</t>
+  </si>
+  <si>
+    <t>Add New Member</t>
+  </si>
+  <si>
+    <t>Edit Member(Valid Date)</t>
+  </si>
+  <si>
+    <t>Member Branch Transfer</t>
+  </si>
+  <si>
+    <t>Memebr Terminate/Resign</t>
+  </si>
+  <si>
+    <t>Member Promote/Dedote</t>
+  </si>
+  <si>
+    <t>View Member Event</t>
+  </si>
+  <si>
+    <t>Confirm Member Event</t>
+  </si>
+  <si>
+    <t>Member Organization Backup</t>
+  </si>
+  <si>
+    <t>New COD Proccess</t>
+  </si>
+  <si>
+    <t>html_Organization/Training Course.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Training Course_popup_New Entry.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Training Course_popup_View Coursey.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Training Course_Training Course Edit Course.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Training Applicant Log.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Organization Member.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Organization Member_popup_View Member.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Organization Member_popup_Add New Member.html</t>
+  </si>
+  <si>
+    <t>html_Organization/Organization Member Neo Pro &amp; HP Listing.html</t>
+  </si>
+  <si>
+    <t>Course</t>
   </si>
 </sst>
 </file>
@@ -2408,15 +2479,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="86">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2431,9 +2500,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2446,9 +2513,7 @@
         <color rgb="FF666666"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2461,9 +2526,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2474,9 +2537,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2491,9 +2552,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2502,9 +2561,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2517,9 +2574,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2530,9 +2585,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2543,9 +2596,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2560,33 +2611,287 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
     <border>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </diagonal>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2607,16 +2912,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
@@ -2648,19 +2953,77 @@
       </diagonal>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2669,6 +3032,19 @@
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF666666"/>
@@ -2676,9 +3052,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2691,9 +3065,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2706,9 +3078,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2721,9 +3091,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2736,9 +3104,7 @@
         <color rgb="FF666666"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2748,12 +3114,108 @@
         <color rgb="FF666666"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2761,44 +3223,12 @@
         <color rgb="FF666666"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2811,9 +3241,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2826,9 +3254,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2841,9 +3267,7 @@
         <color rgb="FF666666"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2855,208 +3279,38 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF666666"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF666666"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF666666"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF666666"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF95B3D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
       </left>
       <right/>
       <top style="thin">
@@ -3065,9 +3319,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -3080,9 +3332,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3095,9 +3345,7 @@
         <color rgb="FF666666"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3107,10 +3355,10 @@
         <color rgb="FF666666"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3120,128 +3368,8 @@
         <color rgb="FF666666"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3254,9 +3382,57 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </diagonal>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -3269,9 +3445,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3284,9 +3458,7 @@
         <color rgb="FF666666"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3299,59 +3471,12 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -3359,9 +3484,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3370,13 +3493,9 @@
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3385,13 +3504,11 @@
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3402,117 +3519,12 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
@@ -3520,37 +3532,7 @@
       <bottom style="thin">
         <color rgb="FF666666"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3607,7 +3589,7 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4179,6 +4161,24 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4521,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.750000" customHeight="1"/>
@@ -4565,48 +4565,48 @@
       <c r="A2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="195" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>88</v>
+        <v>629</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="72" t="s">
         <v>96</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>360</v>
+        <v>620</v>
       </c>
       <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="71" t="s">
-        <v>90</v>
+        <v>608</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="72" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>361</v>
+        <v>621</v>
       </c>
       <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="71" t="s">
-        <v>92</v>
+        <v>609</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="72" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>362</v>
+        <v>622</v>
       </c>
       <c r="G4" s="73" t="s">
         <v>93</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="71" t="s">
         <v>94</v>
       </c>
@@ -4623,27 +4623,33 @@
         <v>100</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>363</v>
+        <v>623</v>
       </c>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="71" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="73"/>
+        <v>96</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>624</v>
+      </c>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
-        <v>103</v>
+      <c r="A7" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="195" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="71" t="s">
         <v>88</v>
@@ -4653,85 +4659,81 @@
         <v>96</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>364</v>
+        <v>625</v>
       </c>
       <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>108</v>
-      </c>
+      <c r="A8" s="70"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="71" t="s">
-        <v>88</v>
+        <v>610</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="72" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="G8" s="73"/>
+        <v>626</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="71" t="s">
-        <v>115</v>
+        <v>611</v>
       </c>
       <c r="D9" s="71"/>
-      <c r="E9" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>112</v>
-      </c>
+      <c r="E9" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>627</v>
+      </c>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="71"/>
-      <c r="E10" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>367</v>
+      <c r="E10" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>628</v>
       </c>
       <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" s="73"/>
+        <v>120</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="71" t="s">
-        <v>121</v>
+        <v>612</v>
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="72" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="73" t="s">
@@ -4739,14 +4741,14 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="71" t="s">
-        <v>124</v>
+        <v>613</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="72" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="73" t="s">
@@ -4755,13 +4757,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="71" t="s">
-        <v>127</v>
+        <v>614</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F14" s="73"/>
       <c r="G14" s="73" t="s">
@@ -4770,13 +4772,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="71" t="s">
-        <v>129</v>
+        <v>615</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="72" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F15" s="73"/>
       <c r="G15" s="73" t="s">
@@ -4785,176 +4787,165 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="71" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F16" s="73"/>
       <c r="G16" s="73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
+      <c r="B17" s="71" t="s">
+        <v>138</v>
+      </c>
       <c r="C17" s="71" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73" t="s">
-        <v>136</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71" t="s">
-        <v>138</v>
-      </c>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="71" t="s">
-        <v>88</v>
+        <v>616</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="72" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="71"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>139</v>
+        <v>617</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="73"/>
+        <v>141</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="70"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
-        <v>142</v>
+        <v>618</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73" t="s">
-        <v>136</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="71" t="s">
+        <v>146</v>
+      </c>
       <c r="C21" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="72"/>
       <c r="F21" s="73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="70"/>
       <c r="B22" s="71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="73" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="70"/>
       <c r="B23" s="71" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="71" t="s">
         <v>88</v>
       </c>
+      <c r="D24" s="71"/>
       <c r="E24" s="72"/>
       <c r="F24" s="73" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="71"/>
-      <c r="B25" s="71" t="s">
-        <v>154</v>
-      </c>
+      <c r="B25" s="71"/>
       <c r="C25" s="71" t="s">
-        <v>88</v>
+        <v>619</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="72"/>
       <c r="F25" s="73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G25" s="73"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73" t="s">
-        <v>405</v>
-      </c>
-      <c r="G26" s="73"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4963,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000" customHeight="1"/>
@@ -5003,10 +4994,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.500000">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="192" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5022,8 +5013,8 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="13.500000">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="193"/>
       <c r="C3" s="4" t="s">
         <v>164</v>
       </c>
@@ -5035,8 +5026,8 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="13.500000">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
       <c r="C4" s="4" t="s">
         <v>167</v>
       </c>
@@ -5050,8 +5041,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.500000">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="4" t="s">
         <v>171</v>
       </c>
@@ -5065,8 +5056,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.500000">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="4" t="s">
         <v>162</v>
       </c>
@@ -5080,8 +5071,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.500000">
-      <c r="A7" s="18"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="193"/>
+      <c r="B7" s="192" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5097,8 +5088,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="13.500000">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="4" t="s">
         <v>183</v>
       </c>
@@ -5110,8 +5101,8 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="13.500000">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="4" t="s">
         <v>186</v>
       </c>
@@ -5123,8 +5114,8 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="13.500000">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="4" t="s">
         <v>171</v>
       </c>
@@ -5136,8 +5127,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="13.500000">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="4" t="s">
         <v>189</v>
       </c>
@@ -5149,8 +5140,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="13.500000">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="193"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="4" t="s">
         <v>191</v>
       </c>
@@ -5162,8 +5153,8 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="13.500000">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="193"/>
+      <c r="B13" s="192" t="s">
         <v>193</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -5177,8 +5168,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="13.500000">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="193"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5190,8 +5181,8 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="13.500000">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="4" t="s">
         <v>197</v>
       </c>
@@ -5205,8 +5196,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.500000">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="4" t="s">
         <v>200</v>
       </c>
@@ -5218,8 +5209,8 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="13.500000">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="4" t="s">
         <v>202</v>
       </c>
@@ -5231,8 +5222,8 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="13.500000">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="4" t="s">
         <v>205</v>
       </c>
@@ -5244,9 +5235,9 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="13.500000">
-      <c r="A19" s="18"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="193"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="192" t="s">
         <v>208</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -5259,9 +5250,9 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="13.500000">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
       <c r="D20" s="4" t="s">
         <v>210</v>
       </c>
@@ -5272,9 +5263,9 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="13.500000">
-      <c r="A21" s="18"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
       <c r="D21" s="4" t="s">
         <v>213</v>
       </c>
@@ -5285,9 +5276,9 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="13.500000">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
       <c r="D22" s="4" t="s">
         <v>215</v>
       </c>
@@ -5298,8 +5289,8 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="13.500000">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="193"/>
+      <c r="B23" s="192" t="s">
         <v>219</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -5315,8 +5306,8 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="13.500000">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="193"/>
+      <c r="B24" s="193"/>
       <c r="C24" s="4" t="s">
         <v>223</v>
       </c>
@@ -5328,8 +5319,8 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="13.500000">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="193"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="4" t="s">
         <v>224</v>
       </c>
@@ -5341,7 +5332,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="13.500000">
-      <c r="A26" s="4"/>
+      <c r="A26" s="194"/>
       <c r="B26" s="4" t="s">
         <v>226</v>
       </c>
@@ -5358,7 +5349,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="13.500000">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="192" t="s">
         <v>228</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5375,8 +5366,8 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="13.500000">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="193"/>
+      <c r="B28" s="192" t="s">
         <v>230</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -5392,8 +5383,8 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="13.500000">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="193"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="53" t="s">
         <v>232</v>
       </c>
@@ -5404,9 +5395,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="15.800000">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:7" ht="15.750000">
+      <c r="A30" s="193"/>
+      <c r="B30" s="193"/>
       <c r="C30" s="4" t="s">
         <v>234</v>
       </c>
@@ -5418,8 +5409,8 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="13.500000">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="193"/>
       <c r="C31" s="4" t="s">
         <v>237</v>
       </c>
@@ -5433,8 +5424,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.500000">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="193"/>
+      <c r="B32" s="194"/>
       <c r="C32" s="4" t="s">
         <v>236</v>
       </c>
@@ -5448,7 +5439,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.500000">
-      <c r="A33" s="4"/>
+      <c r="A33" s="193"/>
       <c r="B33" s="4" t="s">
         <v>238</v>
       </c>
@@ -5463,8 +5454,8 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="13.500000">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="193"/>
+      <c r="B34" s="192" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5478,8 +5469,8 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="13.500000">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="4" t="s">
         <v>232</v>
       </c>
@@ -5491,8 +5482,8 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="13.500000">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="193"/>
+      <c r="B36" s="193"/>
       <c r="C36" s="4" t="s">
         <v>240</v>
       </c>
@@ -5504,8 +5495,8 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="13.500000">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="193"/>
       <c r="C37" s="4" t="s">
         <v>243</v>
       </c>
@@ -5517,8 +5508,8 @@
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="13.500000">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="194"/>
       <c r="C38" s="4" t="s">
         <v>246</v>
       </c>
@@ -5530,8 +5521,8 @@
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="13.500000">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="193"/>
+      <c r="B39" s="192" t="s">
         <v>248</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -5545,8 +5536,8 @@
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="13.500000">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="193"/>
+      <c r="B40" s="193"/>
       <c r="C40" s="4" t="s">
         <v>249</v>
       </c>
@@ -5558,8 +5549,8 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="13.500000">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="193"/>
+      <c r="B41" s="194"/>
       <c r="C41" s="4" t="s">
         <v>250</v>
       </c>
@@ -5571,7 +5562,7 @@
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="13.500000">
-      <c r="A42" s="4"/>
+      <c r="A42" s="194"/>
       <c r="B42" s="4" t="s">
         <v>251</v>
       </c>
@@ -5586,7 +5577,7 @@
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="13.500000">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="192" t="s">
         <v>253</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5603,7 +5594,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="13.500000">
-      <c r="A44" s="4"/>
+      <c r="A44" s="193"/>
       <c r="B44" s="4" t="s">
         <v>255</v>
       </c>
@@ -5616,7 +5607,7 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="13.500000">
-      <c r="A45" s="4"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="4" t="s">
         <v>256</v>
       </c>
@@ -5629,8 +5620,8 @@
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="13.500000">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="193"/>
+      <c r="B46" s="192" t="s">
         <v>258</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -5644,8 +5635,8 @@
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="13.500000">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="193"/>
+      <c r="B47" s="193"/>
       <c r="C47" s="53" t="s">
         <v>259</v>
       </c>
@@ -5656,9 +5647,9 @@
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="15.800000">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+    <row r="48" spans="1:7" ht="15.750000">
+      <c r="A48" s="193"/>
+      <c r="B48" s="194"/>
       <c r="C48" s="4" t="s">
         <v>261</v>
       </c>
@@ -5672,8 +5663,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.500000">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="193"/>
+      <c r="B49" s="192" t="s">
         <v>263</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5687,8 +5678,8 @@
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" ht="13.500000">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="193"/>
+      <c r="B50" s="193"/>
       <c r="C50" s="4" t="s">
         <v>264</v>
       </c>
@@ -5700,8 +5691,8 @@
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" ht="13.500000">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="193"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="4" t="s">
         <v>265</v>
       </c>
@@ -5713,8 +5704,8 @@
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" ht="13.500000">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="193"/>
+      <c r="B52" s="192" t="s">
         <v>272</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -5730,8 +5721,8 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="13.500000">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>259</v>
@@ -5743,8 +5734,8 @@
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" ht="13.500000">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="193"/>
+      <c r="B54" s="194"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>261</v>
@@ -5756,8 +5747,8 @@
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" ht="13.500000">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="193"/>
+      <c r="B55" s="192" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -5770,9 +5761,9 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="15.800000">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+    <row r="56" spans="1:7" ht="15.750000">
+      <c r="A56" s="193"/>
+      <c r="B56" s="193"/>
       <c r="C56" s="4" t="s">
         <v>203</v>
       </c>
@@ -5784,8 +5775,8 @@
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" ht="13.500000">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="4" t="s">
         <v>277</v>
       </c>
@@ -5797,11 +5788,11 @@
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" ht="13.500000">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>279</v>
+      <c r="B58" s="192" t="s">
+        <v>607</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>161</v>
@@ -5814,8 +5805,8 @@
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="13.500000">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="193"/>
       <c r="C59" s="4" t="s">
         <v>280</v>
       </c>
@@ -5827,8 +5818,8 @@
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="13.500000">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="193"/>
+      <c r="B60" s="193"/>
       <c r="C60" s="4" t="s">
         <v>289</v>
       </c>
@@ -5840,8 +5831,8 @@
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="13.500000">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="193"/>
+      <c r="B61" s="193"/>
       <c r="C61" s="4" t="s">
         <v>297</v>
       </c>
@@ -5855,8 +5846,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="13.500000">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="193"/>
+      <c r="B62" s="193"/>
       <c r="C62" s="4" t="s">
         <v>298</v>
       </c>
@@ -5868,8 +5859,8 @@
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" ht="13.500000">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="193"/>
+      <c r="B63" s="193"/>
       <c r="C63" s="4" t="s">
         <v>299</v>
       </c>
@@ -5881,8 +5872,8 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" ht="13.500000">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="193"/>
+      <c r="B64" s="193"/>
       <c r="C64" s="4" t="s">
         <v>300</v>
       </c>
@@ -5894,8 +5885,8 @@
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="13.500000">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="193"/>
+      <c r="B65" s="193"/>
       <c r="C65" s="4" t="s">
         <v>302</v>
       </c>
@@ -5909,8 +5900,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="13.500000">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="194"/>
+      <c r="B66" s="194"/>
       <c r="C66" s="4" t="s">
         <v>305</v>
       </c>
@@ -5921,25 +5912,26 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="13.500000">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.500000">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-    </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A27:A42"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A43:A57"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="B58:B66"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6606,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -6645,428 +6637,246 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.500000">
-      <c r="A2" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>376</v>
-      </c>
+      <c r="A2" s="18"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="13.500000">
       <c r="A3" s="18"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="4" t="s">
-        <v>381</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="13.500000">
       <c r="A4" s="18"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>383</v>
-      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="13.500000">
       <c r="A5" s="18"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134" t="s">
-        <v>384</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="13.500000">
       <c r="A6" s="18"/>
-      <c r="B6" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>390</v>
-      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="13.500000">
       <c r="A7" s="4"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>396</v>
-      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="13.500000">
       <c r="A8" s="18"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="62" t="s">
-        <v>395</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="62"/>
-      <c r="E8" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>397</v>
-      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="12.000000" customHeight="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="139" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>410</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="13.500000">
       <c r="A10" s="18"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="13.500000">
       <c r="A11" s="18"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>412</v>
-      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="13.500000">
       <c r="A12" s="18"/>
-      <c r="B12" s="139" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>422</v>
-      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="13.500000">
       <c r="A13" s="4"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>424</v>
-      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="13.500000">
       <c r="A14" s="18"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>426</v>
-      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="13.500000">
       <c r="A15" s="18"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>434</v>
-      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="13.500000">
       <c r="A16" s="18"/>
-      <c r="B16" s="139" t="s">
-        <v>429</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>433</v>
-      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="13.500000">
       <c r="A17" s="18"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="4" t="s">
-        <v>431</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>435</v>
-      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="13.500000">
       <c r="A18" s="18"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>436</v>
-      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="13.500000">
-      <c r="A19" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="139" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>444</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>445</v>
-      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="13.500000">
       <c r="A20" s="18"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="13.500000">
       <c r="A21" s="18"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>447</v>
-      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="13.500000">
       <c r="A22" s="18"/>
-      <c r="B22" s="140"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="13.500000">
       <c r="A23" s="18"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="4" t="s">
-        <v>442</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="13.500000">
       <c r="A24" s="18"/>
-      <c r="B24" s="142" t="s">
-        <v>450</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>450</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>456</v>
-      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="13.500000">
       <c r="A25" s="4"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="13.500000">
       <c r="A26" s="4"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="13.500000">
       <c r="A27" s="4"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="4" t="s">
-        <v>461</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>460</v>
-      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="13.500000">
       <c r="A28" s="4"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>462</v>
-      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="13.500000">
@@ -7075,9 +6885,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="13.500000">
@@ -7086,9 +6894,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="13.500000">
@@ -7097,9 +6903,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="13.500000">
@@ -7108,9 +6912,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="13.500000">
@@ -7119,9 +6921,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="13.500000">
@@ -7130,9 +6930,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="13.500000">
@@ -7141,9 +6939,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="13.500000">
@@ -7152,9 +6948,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="13.500000">
@@ -7163,9 +6957,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="13.500000">
@@ -7174,9 +6966,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="38"/>
-      <c r="F38" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="13.500000">
@@ -7185,9 +6975,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="38"/>
-      <c r="F39" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="13.500000">
@@ -7196,9 +6984,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="13.500000">
@@ -7238,31 +7024,21 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="13.500000">
-      <c r="A45" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>542</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="6" t="s">
-        <v>547</v>
-      </c>
+      <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" ht="13.500000">
       <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>545</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="38"/>
-      <c r="F46" s="6" t="s">
-        <v>546</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="13.500000">
@@ -7356,15 +7132,6 @@
       <c r="G56" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7372,783 +7139,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.750000"/>
-  <cols>
-    <col min="1" max="1" width="20.14785658" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="30.00499998" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="41.43356977" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="33.86214338" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="38.43356977" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="56.57643018" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17.250000">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.500000">
-      <c r="A2" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.500000">
-      <c r="A3" s="148"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.500000">
-      <c r="A4" s="148"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.500000">
-      <c r="A5" s="148"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.500000">
-      <c r="A6" s="18"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.500000">
-      <c r="A7" s="4"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.500000">
-      <c r="A8" s="4"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.500000">
-      <c r="A9" s="18"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.000000" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.500000">
-      <c r="A11" s="18"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.500000">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.500000">
-      <c r="A13" s="18"/>
-      <c r="B13" s="152" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.500000">
-      <c r="A14" s="4"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.500000">
-      <c r="A15" s="18"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.500000">
-      <c r="A16" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="152" t="s">
-        <v>501</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.500000">
-      <c r="A17" s="18"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.500000">
-      <c r="A18" s="18"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.500000">
-      <c r="A19" s="18"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.500000">
-      <c r="A20" s="4"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.500000">
-      <c r="A21" s="18"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.500000">
-      <c r="A22" s="18"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.500000">
-      <c r="A23" s="18"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.500000">
-      <c r="A24" s="18"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.500000">
-      <c r="A25" s="18"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.500000">
-      <c r="A26" s="4"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.500000">
-      <c r="A27" s="4"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.500000">
-      <c r="A28" s="4"/>
-      <c r="B28" s="152" t="s">
-        <v>531</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.500000">
-      <c r="A29" s="4"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.500000">
-      <c r="A30" s="4"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.500000">
-      <c r="A31" s="4"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.500000">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.500000">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.500000">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.500000">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.500000">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.500000">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.500000">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.500000">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.500000">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.500000">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.500000">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.500000">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.500000">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.500000">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.500000">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.500000">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.500000">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.500000">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.500000">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.500000">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.500000">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.500000">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.500000">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.500000">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.500000">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.500000">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B28:B31"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -8384,12 +7374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.750000"/>
@@ -8808,39 +7798,6 @@
         <v>549</v>
       </c>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.500000">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.500000">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.500000">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8860,4 +7817,2094 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
+  <cols>
+    <col min="1" max="1" width="20.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="21.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="41.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="33.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="33.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="56.57643018" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.250000">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.500000">
+      <c r="A2" s="18"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.500000">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.500000">
+      <c r="A4" s="18"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.500000">
+      <c r="A5" s="18"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.500000">
+      <c r="A6" s="18"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.500000">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.500000">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.000000" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.500000">
+      <c r="A10" s="18"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.500000">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.500000">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.500000">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.500000">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.500000">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.500000">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.500000">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.500000">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.500000">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.500000">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.500000">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.500000">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.500000">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.500000">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.500000">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.500000">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.500000">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.500000">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.500000">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.500000">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.500000">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.500000">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.500000">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.500000">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.500000">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.500000">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.500000">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.500000">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.500000">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.500000">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.500000">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.500000">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.500000">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.500000">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.500000">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.500000">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.500000">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.500000">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.500000">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.500000">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.500000">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.500000">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.500000">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.500000">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.500000">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.500000">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
+  <cols>
+    <col min="1" max="1" width="20.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="21.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="41.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="33.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="33.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="56.57643018" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.250000">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.500000">
+      <c r="A2" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.500000">
+      <c r="A3" s="18"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.500000">
+      <c r="A4" s="18"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.500000">
+      <c r="A5" s="18"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.500000">
+      <c r="A6" s="18"/>
+      <c r="B6" s="127" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.500000">
+      <c r="A7" s="4"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.500000">
+      <c r="A8" s="18"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.000000" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="139" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.500000">
+      <c r="A10" s="18"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.500000">
+      <c r="A11" s="18"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.500000">
+      <c r="A12" s="18"/>
+      <c r="B12" s="139" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.500000">
+      <c r="A13" s="4"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.500000">
+      <c r="A14" s="18"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.500000">
+      <c r="A15" s="18"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.500000">
+      <c r="A16" s="18"/>
+      <c r="B16" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.500000">
+      <c r="A17" s="18"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.500000">
+      <c r="A18" s="18"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.500000">
+      <c r="A19" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.500000">
+      <c r="A20" s="18"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.500000">
+      <c r="A21" s="18"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.500000">
+      <c r="A22" s="18"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.500000">
+      <c r="A23" s="18"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.500000">
+      <c r="A24" s="18"/>
+      <c r="B24" s="142" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.500000">
+      <c r="A25" s="4"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.500000">
+      <c r="A26" s="4"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.500000">
+      <c r="A27" s="4"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.500000">
+      <c r="A28" s="4"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.500000">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.500000">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.500000">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.500000">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.500000">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.500000">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.500000">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.500000">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.500000">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.500000">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.500000">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.500000">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.500000">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.500000">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.500000">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.500000">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.500000">
+      <c r="A45" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.500000">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.500000">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.500000">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.500000">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.500000">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.500000">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.500000">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.500000">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.500000">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.500000">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.500000">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.750000"/>
+  <cols>
+    <col min="1" max="1" width="20.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="30.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="41.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="33.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="38.43356977" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="56.57643018" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.250000">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.500000">
+      <c r="A2" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.500000">
+      <c r="A3" s="148"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.500000">
+      <c r="A4" s="148"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.500000">
+      <c r="A5" s="148"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.500000">
+      <c r="A6" s="18"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.500000">
+      <c r="A7" s="4"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.500000">
+      <c r="A8" s="4"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.500000">
+      <c r="A9" s="18"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.000000" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.500000">
+      <c r="A11" s="18"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.500000">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.500000">
+      <c r="A13" s="18"/>
+      <c r="B13" s="152" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.500000">
+      <c r="A14" s="4"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.500000">
+      <c r="A15" s="18"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.500000">
+      <c r="A16" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.500000">
+      <c r="A17" s="18"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.500000">
+      <c r="A18" s="18"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.500000">
+      <c r="A19" s="18"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.500000">
+      <c r="A20" s="4"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.500000">
+      <c r="A21" s="18"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.500000">
+      <c r="A22" s="18"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.500000">
+      <c r="A23" s="18"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.500000">
+      <c r="A24" s="18"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.500000">
+      <c r="A25" s="18"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.500000">
+      <c r="A26" s="4"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.500000">
+      <c r="A27" s="4"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.500000">
+      <c r="A28" s="4"/>
+      <c r="B28" s="152" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.500000">
+      <c r="A29" s="4"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.500000">
+      <c r="A30" s="4"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.500000">
+      <c r="A31" s="4"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.500000">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.500000">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.500000">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.500000">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.500000">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.500000">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.500000">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.500000">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.500000">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.500000">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.500000">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.500000">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.500000">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.500000">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.500000">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.500000">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.500000">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.500000">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.500000">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.500000">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.500000">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.500000">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.500000">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.500000">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.500000">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.500000">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B28:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>